--- a/biology/Zoologie/Erythrosuchus/Erythrosuchus.xlsx
+++ b/biology/Zoologie/Erythrosuchus/Erythrosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrosuchus africanus
 Erythrosuchus est un genre éteint de « reptiles » archosaures d'Afrique du Sud qui vivait au cours du Trias, il y a environ entre 252 et 201 Ma (millions d'années).
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'était un prédateur redoutable de cinq mètres de long[1] et d'environ 2 mètres de hauteur. Bien qu'il soit de petite taille, il s'attaquait à n'importe qui même à ses congénères[réf. nécessaire]. Il possède une tête gigantesque (1 m) garnie de dents incurvées de 10 à 15 cm[réf. nécessaire]. Il pesait aux alentours de 500 kg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'était un prédateur redoutable de cinq mètres de long et d'environ 2 mètres de hauteur. Bien qu'il soit de petite taille, il s'attaquait à n'importe qui même à ses congénères[réf. nécessaire]. Il possède une tête gigantesque (1 m) garnie de dents incurvées de 10 à 15 cm[réf. nécessaire]. Il pesait aux alentours de 500 kg.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du Trias, la niche écologique est abandonnée par Erythrosuchus et est remplie par des créatures telles Saurosuchus et Postosuchus[Quoi ?][réf. nécessaire].
 </t>
